--- a/web/plantilla_liquidacion.xlsx
+++ b/web/plantilla_liquidacion.xlsx
@@ -139,7 +139,7 @@
     <numFmt numFmtId="169" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="170" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="54">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -217,18 +217,18 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -258,6 +258,15 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <i val="0"/>
       <strike val="0"/>
@@ -416,15 +425,6 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -532,7 +532,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11.0"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -541,6 +541,15 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -618,7 +627,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -773,109 +788,126 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1111,17 +1143,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1273,6 +1294,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1398,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
@@ -1410,57 +1440,59 @@
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="4" applyFont="1" fontId="3"/>
     <xf applyBorder="1" fillId="3" xfId="0" numFmtId="4" borderId="5" applyFont="1" fontId="4" applyNumberFormat="1" applyFill="1"/>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="6" applyFont="1" fontId="5" applyNumberFormat="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="7" applyFont="1" fontId="6"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="164" borderId="8" applyFont="1" fontId="7" applyNumberFormat="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="165" borderId="9" applyFont="1" fontId="8" applyNumberFormat="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="10" applyFont="1" fontId="9" applyNumberFormat="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="164" borderId="7" applyFont="1" fontId="6" applyNumberFormat="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="165" borderId="8" applyFont="1" fontId="7" applyNumberFormat="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="9" applyFont="1" fontId="8" applyNumberFormat="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="10" applyFont="1" fontId="9">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="11" applyFont="1" fontId="10" applyNumberFormat="1"/>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="12" applyFont="1" fontId="11"/>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="13" applyFont="1" fontId="12"/>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="14" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="13"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="14" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="4" xfId="0" numFmtId="0" borderId="15" applyFont="1" fontId="13" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="15"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="16"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="17">
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="16" applyFont="1" fontId="14"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="5" xfId="0" numFmtId="0" borderId="17" applyFont="1" fontId="15" applyFill="1">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="18" applyFont="1" fontId="16"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="17"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="18">
       <alignment vertical="bottom" horizontal="right"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="19" applyFont="1" fontId="18"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="20" applyFont="1" fontId="19" applyNumberFormat="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="21" applyFont="1" fontId="20">
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="20" applyFont="1" fontId="19"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="21" applyFont="1" fontId="20" applyNumberFormat="1"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="22" applyFont="1" fontId="21">
       <alignment vertical="bottom" horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="22" fontId="0">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="23" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" fillId="5" xfId="0" numFmtId="4" borderId="23" applyFont="1" fontId="21" applyNumberFormat="1" applyFill="1"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="22"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="24" applyFont="1" fontId="23"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="25" applyFont="1" fontId="24" applyNumberFormat="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="166" borderId="26" applyFont="1" fontId="25" applyNumberFormat="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="167" borderId="27" applyFont="1" fontId="26" applyNumberFormat="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="28" applyFont="1" fontId="27"/>
+    <xf applyBorder="1" fillId="6" xfId="0" numFmtId="4" borderId="24" applyFont="1" fontId="22" applyNumberFormat="1" applyFill="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="23"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="25" applyFont="1" fontId="24"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="26" applyFont="1" fontId="25" applyNumberFormat="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="166" borderId="27" applyFont="1" fontId="26" applyNumberFormat="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="167" borderId="28" applyFont="1" fontId="27" applyNumberFormat="1"/>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="29" applyFont="1" fontId="28"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="29">
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="29"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="30">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="6" xfId="0" numFmtId="4" borderId="31" applyFont="1" fontId="30" applyNumberFormat="1" applyFill="1"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="32" applyFont="1" fontId="31">
-      <alignment vertical="bottom" horizontal="center"/>
-    </xf>
+    <xf applyBorder="1" fillId="7" xfId="0" numFmtId="4" borderId="32" applyFont="1" fontId="31" applyNumberFormat="1" applyFill="1"/>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="33" applyFont="1" fontId="32" applyNumberFormat="1"/>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="34" applyFont="1" fontId="33">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="7" xfId="0" numFmtId="0" borderId="35" applyFont="1" fontId="34" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="8" xfId="0" numFmtId="0" borderId="35" applyFont="1" fontId="34" applyFill="1">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="8" xfId="0" numFmtId="4" borderId="36" applyFont="1" fontId="35" applyNumberFormat="1" applyFill="1"/>
-    <xf applyBorder="1" fillId="9" xfId="0" numFmtId="168" borderId="37" applyFont="1" fontId="36" applyNumberFormat="1" applyFill="1"/>
+    <xf applyBorder="1" fillId="9" xfId="0" numFmtId="4" borderId="36" applyFont="1" fontId="35" applyNumberFormat="1" applyFill="1"/>
+    <xf applyBorder="1" fillId="10" xfId="0" numFmtId="168" borderId="37" applyFont="1" fontId="36" applyNumberFormat="1" applyFill="1"/>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="38" applyFont="1" fontId="37" applyNumberFormat="1"/>
     <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="39" applyFont="1" fontId="38"/>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="40" applyFont="1" fontId="39">
@@ -1475,16 +1507,19 @@
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="45" applyFont="1" fontId="44">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="46" applyFont="1" fontId="45"/>
-    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="47" applyFont="1" fontId="46">
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="46" applyFont="1" fontId="45">
       <alignment vertical="bottom" horizontal="center"/>
     </xf>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="48" applyFont="1" fontId="47"/>
-    <xf applyBorder="1" fillId="10" xfId="0" numFmtId="4" borderId="49" applyFont="1" fontId="48" applyNumberFormat="1" applyFill="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="47" applyFont="1" fontId="46"/>
+    <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="48" applyFont="1" fontId="47">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="0" borderId="49" applyFont="1" fontId="48"/>
     <xf applyBorder="1" fillId="11" xfId="0" numFmtId="4" borderId="50" applyFont="1" fontId="49" applyNumberFormat="1" applyFill="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="170" borderId="51" applyFont="1" fontId="50" applyNumberFormat="1"/>
-    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="52" applyFont="1" fontId="51" applyNumberFormat="1"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="52"/>
+    <xf applyBorder="1" fillId="12" xfId="0" numFmtId="4" borderId="51" applyFont="1" fontId="50" applyNumberFormat="1" applyFill="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="170" borderId="52" applyFont="1" fontId="51" applyNumberFormat="1"/>
+    <xf applyBorder="1" fillId="0" xfId="0" numFmtId="4" borderId="53" applyFont="1" fontId="52" applyNumberFormat="1"/>
+    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="53"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1500,96 +1535,97 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.14" defaultRowHeight="15.0"/>
   <cols>
     <col min="2" customWidth="1" max="2" width="30.71"/>
-    <col min="5" customWidth="1" max="5" style="25" width="18.71"/>
+    <col min="3" customWidth="1" max="3" width="20.14"/>
+    <col min="5" customWidth="1" max="5" style="26" width="18.71"/>
     <col min="6" customWidth="1" max="6" width="18.43"/>
     <col min="9" customWidth="1" max="9" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="25" r="A1">
+      <c t="s" s="26" r="A1">
         <v>0</v>
       </c>
-      <c s="25" r="B1"/>
-      <c s="25" r="C1"/>
-      <c s="25" r="D1"/>
-      <c s="25" r="E1"/>
-      <c s="25" r="F1"/>
-      <c s="25" r="G1"/>
-      <c s="25" r="H1"/>
-      <c s="25" r="I1"/>
-      <c s="25" r="J1"/>
-      <c s="25" r="K1"/>
-      <c s="25" r="L1"/>
+      <c s="26" r="B1"/>
+      <c s="26" r="C1"/>
+      <c s="26" r="D1"/>
+      <c s="26" r="E1"/>
+      <c s="26" r="F1"/>
+      <c s="26" r="G1"/>
+      <c s="26" r="H1"/>
+      <c s="26" r="I1"/>
+      <c s="26" r="J1"/>
+      <c s="26" r="K1"/>
+      <c s="26" r="L1"/>
     </row>
     <row r="2">
-      <c t="s" s="25" r="A2">
+      <c t="s" s="26" r="A2">
         <v>1</v>
       </c>
-      <c s="25" r="B2"/>
-      <c s="25" r="C2"/>
-      <c s="25" r="D2"/>
-      <c s="25" r="E2"/>
-      <c s="25" r="F2"/>
-      <c s="25" r="G2"/>
-      <c s="25" r="H2"/>
-      <c s="25" r="I2"/>
-      <c s="25" r="J2"/>
-      <c s="25" r="K2"/>
-      <c s="25" r="L2"/>
+      <c s="26" r="B2"/>
+      <c s="26" r="C2"/>
+      <c s="26" r="D2"/>
+      <c s="26" r="E2"/>
+      <c s="26" r="F2"/>
+      <c s="26" r="G2"/>
+      <c s="26" r="H2"/>
+      <c s="26" r="I2"/>
+      <c s="26" r="J2"/>
+      <c s="26" r="K2"/>
+      <c s="26" r="L2"/>
     </row>
     <row r="3">
-      <c s="25" r="A3"/>
-      <c s="25" r="B3"/>
-      <c s="25" r="C3"/>
-      <c s="25" r="D3"/>
-      <c s="25" r="E3"/>
-      <c s="25" r="F3"/>
-      <c s="25" r="G3"/>
-      <c s="25" r="H3"/>
-      <c s="25" r="I3"/>
-      <c s="25" r="J3"/>
-      <c s="25" r="K3"/>
-      <c s="25" r="L3"/>
+      <c s="26" r="A3"/>
+      <c s="26" r="B3"/>
+      <c s="26" r="C3"/>
+      <c s="26" r="D3"/>
+      <c s="26" r="E3"/>
+      <c s="26" r="F3"/>
+      <c s="26" r="G3"/>
+      <c s="26" r="H3"/>
+      <c s="26" r="I3"/>
+      <c s="26" r="J3"/>
+      <c s="26" r="K3"/>
+      <c s="26" r="L3"/>
     </row>
     <row customHeight="1" r="4" ht="15.75">
-      <c s="25" r="A4"/>
-      <c t="s" s="18" r="B4">
+      <c s="26" r="A4"/>
+      <c t="s" s="19" r="B4">
         <v>2</v>
       </c>
-      <c s="18" r="C4"/>
-      <c s="18" r="D4"/>
-      <c s="18" r="E4"/>
-      <c s="18" r="F4"/>
-      <c s="18" r="G4"/>
-      <c s="25" r="H4"/>
-      <c s="25" r="I4"/>
-      <c s="25" r="J4"/>
-      <c s="25" r="K4"/>
-      <c s="25" r="L4"/>
+      <c s="19" r="C4"/>
+      <c s="19" r="D4"/>
+      <c s="19" r="E4"/>
+      <c s="19" r="F4"/>
+      <c s="19" r="G4"/>
+      <c s="26" r="H4"/>
+      <c s="26" r="I4"/>
+      <c s="26" r="J4"/>
+      <c s="26" r="K4"/>
+      <c s="26" r="L4"/>
     </row>
     <row customHeight="1" r="5" ht="15.75">
-      <c s="25" r="A5"/>
+      <c s="26" r="A5"/>
       <c s="3" r="B5"/>
       <c s="41" r="C5"/>
       <c s="41" r="D5"/>
       <c s="41" r="E5"/>
       <c s="41" r="F5"/>
-      <c s="28" r="G5"/>
+      <c s="29" r="G5"/>
       <c s="41" r="H5"/>
       <c s="41" r="I5"/>
-      <c s="25" r="J5"/>
-      <c s="25" r="K5"/>
-      <c s="25" r="L5"/>
+      <c s="26" r="J5"/>
+      <c s="26" r="K5"/>
+      <c s="26" r="L5"/>
     </row>
     <row customHeight="1" r="6" ht="15.75">
       <c s="37" r="A6"/>
-      <c t="s" s="46" r="B6">
+      <c t="s" s="47" r="B6">
         <v>3</v>
       </c>
-      <c t="s" s="32" r="C6">
+      <c t="s" s="33" r="C6">
         <v>4</v>
       </c>
-      <c t="s" s="47" r="D6">
+      <c t="s" s="48" r="D6">
         <v>5</v>
       </c>
       <c t="s" s="36" r="E6">
@@ -1604,12 +1640,12 @@
       <c t="s" s="36" r="H6">
         <v>9</v>
       </c>
-      <c t="s" s="36" r="I6">
+      <c t="s" s="10" r="I6">
         <v>10</v>
       </c>
-      <c s="34" r="J6"/>
-      <c s="7" r="K6"/>
-      <c s="25" r="L6"/>
+      <c s="46" r="J6"/>
+      <c s="26" r="K6"/>
+      <c s="26" r="L6"/>
     </row>
   </sheetData>
 </worksheet>
@@ -1632,59 +1668,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="25" r="A1">
+      <c t="s" s="26" r="A1">
         <v>0</v>
       </c>
-      <c s="25" r="B1"/>
-      <c s="25" r="C1"/>
-      <c s="25" r="D1"/>
-      <c s="25" r="E1"/>
-      <c s="25" r="F1"/>
-      <c s="25" r="G1"/>
-      <c s="25" r="H1"/>
-      <c s="25" r="I1"/>
+      <c s="26" r="B1"/>
+      <c s="26" r="C1"/>
+      <c s="26" r="D1"/>
+      <c s="26" r="E1"/>
+      <c s="26" r="F1"/>
+      <c s="26" r="G1"/>
+      <c s="26" r="H1"/>
+      <c s="26" r="I1"/>
     </row>
     <row customHeight="1" r="2" ht="15.75">
-      <c t="s" s="25" r="A2">
+      <c t="s" s="26" r="A2">
         <v>1</v>
       </c>
-      <c s="25" r="B2"/>
-      <c s="18" r="C2"/>
-      <c s="18" r="D2"/>
-      <c s="18" r="E2"/>
-      <c s="25" r="F2"/>
-      <c s="25" r="G2"/>
-      <c s="25" r="H2"/>
-      <c s="25" r="I2"/>
+      <c s="26" r="B2"/>
+      <c s="19" r="C2"/>
+      <c s="19" r="D2"/>
+      <c s="19" r="E2"/>
+      <c s="26" r="F2"/>
+      <c s="26" r="G2"/>
+      <c s="26" r="H2"/>
+      <c s="26" r="I2"/>
     </row>
     <row r="3">
-      <c s="25" r="A3"/>
-      <c s="25" r="B3"/>
-      <c s="25" r="C3"/>
-      <c s="25" r="D3"/>
-      <c s="25" r="E3"/>
-      <c s="25" r="F3"/>
-      <c s="25" r="G3"/>
-      <c s="25" r="H3"/>
-      <c s="25" r="I3"/>
+      <c s="26" r="A3"/>
+      <c s="26" r="B3"/>
+      <c s="26" r="C3"/>
+      <c s="26" r="D3"/>
+      <c s="26" r="E3"/>
+      <c s="26" r="F3"/>
+      <c s="26" r="G3"/>
+      <c s="26" r="H3"/>
+      <c s="26" r="I3"/>
     </row>
     <row customHeight="1" r="4" ht="15.75">
-      <c s="25" r="A4"/>
-      <c t="s" s="18" r="B4">
+      <c s="26" r="A4"/>
+      <c t="s" s="19" r="B4">
         <v>2</v>
       </c>
-      <c s="18" r="C4"/>
-      <c s="18" r="D4"/>
-      <c s="18" r="E4"/>
-      <c s="25" r="F4"/>
-      <c t="s" s="18" r="G4">
+      <c s="19" r="C4"/>
+      <c s="19" r="D4"/>
+      <c s="19" r="E4"/>
+      <c s="26" r="F4"/>
+      <c t="s" s="19" r="G4">
         <v>11</v>
       </c>
-      <c s="25" r="H4"/>
-      <c s="25" r="I4"/>
+      <c s="26" r="H4"/>
+      <c s="26" r="I4"/>
     </row>
     <row customHeight="1" r="5" ht="15.75">
-      <c s="25" r="A5"/>
+      <c s="26" r="A5"/>
       <c t="s" s="3" r="B5">
         <v>12</v>
       </c>
@@ -1692,19 +1728,19 @@
       <c s="41" r="D5"/>
       <c s="41" r="E5"/>
       <c s="41" r="F5"/>
-      <c s="28" r="G5"/>
+      <c s="29" r="G5"/>
       <c s="41" r="H5"/>
       <c s="41" r="I5"/>
     </row>
     <row customHeight="1" r="6" ht="15.75">
       <c s="37" r="A6"/>
-      <c t="s" s="46" r="B6">
+      <c t="s" s="47" r="B6">
         <v>3</v>
       </c>
-      <c t="s" s="32" r="C6">
+      <c t="s" s="33" r="C6">
         <v>4</v>
       </c>
-      <c t="s" s="47" r="D6">
+      <c t="s" s="48" r="D6">
         <v>5</v>
       </c>
       <c t="s" s="36" r="E6">
@@ -1724,47 +1760,47 @@
       </c>
     </row>
     <row r="7">
-      <c s="16" r="A7">
+      <c s="17" r="A7">
         <v>315</v>
       </c>
-      <c t="s" s="22" r="B7">
+      <c t="s" s="23" r="B7">
         <v>13</v>
       </c>
-      <c s="8" r="C7">
+      <c s="7" r="C7">
         <v>41307</v>
       </c>
-      <c t="s" s="20" r="D7">
+      <c t="s" s="21" r="D7">
         <v>14</v>
       </c>
-      <c s="20" r="E7"/>
-      <c s="21" r="F7">
+      <c s="21" r="E7"/>
+      <c s="22" r="F7">
         <v>11326.5</v>
       </c>
-      <c s="21" r="G7">
+      <c s="22" r="G7">
         <v>3483.45</v>
       </c>
-      <c s="21" r="H7">
+      <c s="22" r="H7">
         <v>677.08</v>
       </c>
-      <c s="21" r="I7">
+      <c s="22" r="I7">
         <v>1698.97</v>
       </c>
     </row>
     <row r="8">
-      <c s="16" r="A8">
+      <c s="17" r="A8">
         <v>316</v>
       </c>
-      <c t="s" s="22" r="B8">
+      <c t="s" s="23" r="B8">
         <v>15</v>
       </c>
-      <c s="9" r="C8">
+      <c s="8" r="C8">
         <v>41285</v>
       </c>
       <c t="s" s="43" r="D8">
         <v>16</v>
       </c>
       <c s="43" r="E8"/>
-      <c s="10" r="F8">
+      <c s="9" r="F8">
         <v>7896</v>
       </c>
       <c s="35" r="G8">
@@ -1776,13 +1812,13 @@
       </c>
     </row>
     <row r="9">
-      <c s="16" r="A9">
+      <c s="17" r="A9">
         <v>317</v>
       </c>
-      <c t="s" s="22" r="B9">
+      <c t="s" s="23" r="B9">
         <v>17</v>
       </c>
-      <c s="9" r="C9">
+      <c s="8" r="C9">
         <v>41285</v>
       </c>
       <c t="s" s="43" r="D9">
@@ -1801,13 +1837,13 @@
       </c>
     </row>
     <row r="10">
-      <c s="16" r="A10">
+      <c s="17" r="A10">
         <v>318</v>
       </c>
-      <c t="s" s="22" r="B10">
+      <c t="s" s="23" r="B10">
         <v>17</v>
       </c>
-      <c s="9" r="C10">
+      <c s="8" r="C10">
         <v>41288</v>
       </c>
       <c t="s" s="43" r="D10">
@@ -1828,13 +1864,13 @@
       </c>
     </row>
     <row r="11">
-      <c s="16" r="A11">
+      <c s="17" r="A11">
         <v>319</v>
       </c>
-      <c t="s" s="22" r="B11">
+      <c t="s" s="23" r="B11">
         <v>20</v>
       </c>
-      <c s="9" r="C11">
+      <c s="8" r="C11">
         <v>41298</v>
       </c>
       <c t="s" s="43" r="D11">
@@ -1855,13 +1891,13 @@
       </c>
     </row>
     <row r="12">
-      <c s="16" r="A12">
+      <c s="17" r="A12">
         <v>320</v>
       </c>
-      <c t="s" s="22" r="B12">
+      <c t="s" s="23" r="B12">
         <v>13</v>
       </c>
-      <c s="9" r="C12">
+      <c s="8" r="C12">
         <v>41299</v>
       </c>
       <c t="s" s="43" r="D12">
@@ -1871,10 +1907,10 @@
       <c s="6" r="F12">
         <v>1807.82</v>
       </c>
-      <c t="s" s="19" r="G12">
+      <c t="s" s="20" r="G12">
         <v>23</v>
       </c>
-      <c t="s" s="19" r="H12">
+      <c t="s" s="20" r="H12">
         <v>24</v>
       </c>
       <c s="43" r="I12">
@@ -1882,10 +1918,10 @@
       </c>
     </row>
     <row r="13">
-      <c s="16" r="A13">
+      <c s="17" r="A13">
         <v>321</v>
       </c>
-      <c t="s" s="22" r="B13">
+      <c t="s" s="23" r="B13">
         <v>25</v>
       </c>
       <c s="39" r="C13">
@@ -1909,10 +1945,10 @@
       </c>
     </row>
     <row r="14">
-      <c s="16" r="A14">
+      <c s="17" r="A14">
         <v>322</v>
       </c>
-      <c t="s" s="22" r="B14">
+      <c t="s" s="23" r="B14">
         <v>27</v>
       </c>
       <c s="39" r="C14">
@@ -1936,10 +1972,10 @@
       </c>
     </row>
     <row r="15">
-      <c s="16" r="A15">
+      <c s="17" r="A15">
         <v>323</v>
       </c>
-      <c t="s" s="22" r="B15">
+      <c t="s" s="23" r="B15">
         <v>29</v>
       </c>
       <c s="39" r="C15">
@@ -1963,8 +1999,8 @@
       </c>
     </row>
     <row r="16">
-      <c s="16" r="A16"/>
-      <c t="s" s="46" r="B16">
+      <c s="17" r="A16"/>
+      <c t="s" s="47" r="B16">
         <v>31</v>
       </c>
       <c s="39" r="C16"/>
@@ -1976,10 +2012,10 @@
       <c s="6" r="I16"/>
     </row>
     <row r="17">
-      <c s="16" r="A17">
+      <c s="17" r="A17">
         <v>309</v>
       </c>
-      <c t="s" s="22" r="B17">
+      <c t="s" s="23" r="B17">
         <v>0</v>
       </c>
       <c s="39" r="C17">
@@ -1997,10 +2033,10 @@
       </c>
     </row>
     <row r="18">
-      <c s="16" r="A18">
+      <c s="17" r="A18">
         <v>310</v>
       </c>
-      <c t="s" s="22" r="B18">
+      <c t="s" s="23" r="B18">
         <v>32</v>
       </c>
       <c s="39" r="C18">
@@ -2018,13 +2054,13 @@
       </c>
     </row>
     <row r="19">
-      <c s="16" r="A19">
+      <c s="17" r="A19">
         <v>311</v>
       </c>
-      <c t="s" s="22" r="B19">
+      <c t="s" s="23" r="B19">
         <v>0</v>
       </c>
-      <c s="9" r="C19">
+      <c s="8" r="C19">
         <v>41290</v>
       </c>
       <c s="43" r="D19"/>
@@ -2039,13 +2075,13 @@
       </c>
     </row>
     <row customHeight="1" r="20" ht="15.75">
-      <c s="16" r="A20">
+      <c s="17" r="A20">
         <v>312</v>
       </c>
       <c t="s" s="12" r="B20">
         <v>0</v>
       </c>
-      <c s="29" r="C20">
+      <c s="30" r="C20">
         <v>41291</v>
       </c>
       <c s="6" r="D20"/>
@@ -2053,18 +2089,18 @@
         <v>160.52</v>
       </c>
       <c s="6" r="F20"/>
-      <c s="24" r="G20"/>
-      <c s="24" r="H20"/>
-      <c s="24" r="I20"/>
+      <c s="25" r="G20"/>
+      <c s="25" r="H20"/>
+      <c s="25" r="I20"/>
     </row>
     <row r="21">
-      <c s="16" r="A21">
+      <c s="17" r="A21">
         <v>313</v>
       </c>
       <c t="s" s="43" r="B21">
         <v>0</v>
       </c>
-      <c s="29" r="C21">
+      <c s="30" r="C21">
         <v>41297</v>
       </c>
       <c s="43" r="D21"/>
@@ -2077,8 +2113,8 @@
       <c s="43" r="I21"/>
     </row>
     <row customHeight="1" r="22" ht="15.75">
-      <c s="17" r="A22"/>
-      <c s="26" r="B22"/>
+      <c s="18" r="A22"/>
+      <c s="27" r="B22"/>
       <c s="44" r="C22"/>
       <c s="6" r="D22"/>
       <c s="5" r="E22">
@@ -2086,26 +2122,26 @@
         <v>5769</v>
       </c>
       <c s="6" r="F22"/>
-      <c s="33" r="G22">
+      <c s="34" r="G22">
         <f>SUM(G7:G21)</f>
         <v>9610.05</v>
       </c>
-      <c s="33" r="H22">
+      <c s="34" r="H22">
         <f>SUM(H7:H21)</f>
         <v>2094.52</v>
       </c>
-      <c s="33" r="I22">
+      <c s="34" r="I22">
         <f>SUM(I7:I21)</f>
         <v>3648.44</v>
       </c>
     </row>
     <row customHeight="1" r="23" ht="18.75">
-      <c s="25" r="A23"/>
-      <c s="15" r="B23"/>
+      <c s="26" r="A23"/>
+      <c s="16" r="B23"/>
       <c s="45" r="C23"/>
       <c s="45" r="D23"/>
       <c s="45" r="E23"/>
-      <c s="17" r="F23"/>
+      <c s="18" r="F23"/>
       <c t="s" s="11" r="G23">
         <v>33</v>
       </c>
@@ -2115,12 +2151,12 @@
       </c>
     </row>
     <row customHeight="1" r="24" ht="18.75">
-      <c s="25" r="A24"/>
-      <c s="18" r="B24"/>
-      <c s="25" r="C24"/>
-      <c s="25" r="D24"/>
-      <c s="25" r="E24"/>
-      <c s="31" r="F24"/>
+      <c s="26" r="A24"/>
+      <c s="19" r="B24"/>
+      <c s="26" r="C24"/>
+      <c s="26" r="D24"/>
+      <c s="26" r="E24"/>
+      <c s="32" r="F24"/>
       <c t="s" s="11" r="G24">
         <v>34</v>
       </c>
@@ -2130,19 +2166,19 @@
       </c>
     </row>
     <row customHeight="1" r="25" ht="21.0">
-      <c s="25" r="A25"/>
-      <c t="s" s="55" r="B25">
+      <c s="26" r="A25"/>
+      <c t="s" s="56" r="B25">
         <v>35</v>
       </c>
-      <c s="25" r="C25"/>
-      <c s="25" r="D25"/>
-      <c s="25" r="E25"/>
-      <c s="31" r="F25"/>
+      <c s="26" r="C25"/>
+      <c s="26" r="D25"/>
+      <c s="26" r="E25"/>
+      <c s="32" r="F25"/>
       <c t="s" s="11" r="G25">
         <v>36</v>
       </c>
       <c s="6" r="H25"/>
-      <c s="51" r="I25">
+      <c s="52" r="I25">
         <v>11596.65</v>
       </c>
     </row>
@@ -2158,164 +2194,164 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.14" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c s="25" r="A1"/>
-      <c s="25" r="B1"/>
-      <c s="25" r="C1"/>
-      <c s="25" r="D1"/>
-      <c s="25" r="E1"/>
-      <c s="25" r="F1"/>
+      <c s="26" r="A1"/>
+      <c s="26" r="B1"/>
+      <c s="26" r="C1"/>
+      <c s="26" r="D1"/>
+      <c s="26" r="E1"/>
+      <c s="26" r="F1"/>
     </row>
     <row r="2">
-      <c s="25" r="A2"/>
-      <c s="25" r="B2"/>
-      <c s="25" r="C2"/>
-      <c s="25" r="D2"/>
-      <c s="25" r="E2"/>
-      <c s="25" r="F2"/>
+      <c s="26" r="A2"/>
+      <c s="26" r="B2"/>
+      <c s="26" r="C2"/>
+      <c s="26" r="D2"/>
+      <c s="26" r="E2"/>
+      <c s="26" r="F2"/>
     </row>
     <row r="3">
-      <c s="25" r="A3"/>
-      <c s="25" r="B3"/>
-      <c s="25" r="C3"/>
-      <c s="25" r="D3"/>
-      <c s="25" r="E3"/>
-      <c s="25" r="F3"/>
+      <c s="26" r="A3"/>
+      <c s="26" r="B3"/>
+      <c s="26" r="C3"/>
+      <c s="26" r="D3"/>
+      <c s="26" r="E3"/>
+      <c s="26" r="F3"/>
     </row>
     <row r="4">
-      <c s="25" r="A4"/>
-      <c s="25" r="B4"/>
-      <c s="25" r="C4"/>
-      <c s="25" r="D4"/>
-      <c s="25" r="E4"/>
-      <c s="25" r="F4"/>
+      <c s="26" r="A4"/>
+      <c s="26" r="B4"/>
+      <c s="26" r="C4"/>
+      <c s="26" r="D4"/>
+      <c s="26" r="E4"/>
+      <c s="26" r="F4"/>
     </row>
     <row r="5">
-      <c s="25" r="A5"/>
-      <c s="25" r="B5"/>
-      <c s="25" r="C5"/>
-      <c s="25" r="D5"/>
-      <c s="25" r="E5"/>
-      <c s="25" r="F5"/>
+      <c s="26" r="A5"/>
+      <c s="26" r="B5"/>
+      <c s="26" r="C5"/>
+      <c s="26" r="D5"/>
+      <c s="26" r="E5"/>
+      <c s="26" r="F5"/>
     </row>
     <row r="6">
-      <c s="25" r="A6"/>
-      <c s="25" r="B6"/>
-      <c s="25" r="C6"/>
-      <c s="25" r="D6"/>
-      <c s="25" r="E6"/>
-      <c s="25" r="F6"/>
+      <c s="26" r="A6"/>
+      <c s="26" r="B6"/>
+      <c s="26" r="C6"/>
+      <c s="26" r="D6"/>
+      <c s="26" r="E6"/>
+      <c s="26" r="F6"/>
     </row>
     <row r="7">
-      <c s="25" r="A7"/>
-      <c s="25" r="B7"/>
-      <c s="25" r="C7"/>
-      <c s="25" r="D7"/>
-      <c s="25" r="E7"/>
-      <c s="25" r="F7"/>
+      <c s="26" r="A7"/>
+      <c s="26" r="B7"/>
+      <c s="26" r="C7"/>
+      <c s="26" r="D7"/>
+      <c s="26" r="E7"/>
+      <c s="26" r="F7"/>
     </row>
     <row r="8">
-      <c s="25" r="A8"/>
-      <c s="25" r="B8"/>
-      <c s="25" r="C8"/>
-      <c s="25" r="D8"/>
-      <c s="25" r="E8"/>
-      <c s="25" r="F8"/>
+      <c s="26" r="A8"/>
+      <c s="26" r="B8"/>
+      <c s="26" r="C8"/>
+      <c s="26" r="D8"/>
+      <c s="26" r="E8"/>
+      <c s="26" r="F8"/>
     </row>
     <row r="9">
-      <c s="25" r="A9"/>
-      <c s="25" r="B9"/>
-      <c s="25" r="C9"/>
-      <c s="25" r="D9"/>
-      <c s="25" r="E9"/>
-      <c s="25" r="F9"/>
+      <c s="26" r="A9"/>
+      <c s="26" r="B9"/>
+      <c s="26" r="C9"/>
+      <c s="26" r="D9"/>
+      <c s="26" r="E9"/>
+      <c s="26" r="F9"/>
     </row>
     <row r="10">
-      <c s="25" r="A10"/>
-      <c s="25" r="B10"/>
-      <c s="25" r="C10"/>
-      <c s="25" r="D10"/>
-      <c s="25" r="E10"/>
-      <c s="25" r="F10"/>
+      <c s="26" r="A10"/>
+      <c s="26" r="B10"/>
+      <c s="26" r="C10"/>
+      <c s="26" r="D10"/>
+      <c s="26" r="E10"/>
+      <c s="26" r="F10"/>
     </row>
     <row r="11">
-      <c s="25" r="A11"/>
-      <c s="25" r="B11"/>
-      <c s="25" r="C11"/>
-      <c s="25" r="D11"/>
-      <c s="25" r="E11"/>
-      <c s="25" r="F11"/>
+      <c s="26" r="A11"/>
+      <c s="26" r="B11"/>
+      <c s="26" r="C11"/>
+      <c s="26" r="D11"/>
+      <c s="26" r="E11"/>
+      <c s="26" r="F11"/>
     </row>
     <row r="12">
-      <c s="25" r="A12"/>
-      <c s="25" r="B12"/>
-      <c s="25" r="C12"/>
-      <c s="25" r="D12"/>
-      <c s="25" r="E12"/>
-      <c s="25" r="F12"/>
+      <c s="26" r="A12"/>
+      <c s="26" r="B12"/>
+      <c s="26" r="C12"/>
+      <c s="26" r="D12"/>
+      <c s="26" r="E12"/>
+      <c s="26" r="F12"/>
     </row>
     <row r="13">
-      <c s="25" r="A13"/>
-      <c s="25" r="B13"/>
-      <c s="25" r="C13"/>
-      <c s="25" r="D13"/>
-      <c s="25" r="E13"/>
-      <c s="25" r="F13"/>
+      <c s="26" r="A13"/>
+      <c s="26" r="B13"/>
+      <c s="26" r="C13"/>
+      <c s="26" r="D13"/>
+      <c s="26" r="E13"/>
+      <c s="26" r="F13"/>
     </row>
     <row r="14">
-      <c s="25" r="A14"/>
-      <c s="25" r="B14"/>
-      <c s="25" r="C14"/>
-      <c s="25" r="D14"/>
-      <c s="25" r="E14"/>
-      <c s="25" r="F14"/>
+      <c s="26" r="A14"/>
+      <c s="26" r="B14"/>
+      <c s="26" r="C14"/>
+      <c s="26" r="D14"/>
+      <c s="26" r="E14"/>
+      <c s="26" r="F14"/>
     </row>
     <row r="15">
-      <c s="25" r="A15"/>
-      <c s="25" r="B15"/>
-      <c s="25" r="C15"/>
-      <c s="25" r="D15"/>
-      <c s="25" r="E15"/>
-      <c s="25" r="F15"/>
+      <c s="26" r="A15"/>
+      <c s="26" r="B15"/>
+      <c s="26" r="C15"/>
+      <c s="26" r="D15"/>
+      <c s="26" r="E15"/>
+      <c s="26" r="F15"/>
     </row>
     <row r="16">
-      <c s="25" r="A16"/>
-      <c s="25" r="B16"/>
-      <c s="25" r="C16"/>
-      <c s="25" r="D16"/>
-      <c s="25" r="E16"/>
-      <c s="25" r="F16"/>
+      <c s="26" r="A16"/>
+      <c s="26" r="B16"/>
+      <c s="26" r="C16"/>
+      <c s="26" r="D16"/>
+      <c s="26" r="E16"/>
+      <c s="26" r="F16"/>
     </row>
     <row r="17">
-      <c s="25" r="A17"/>
-      <c s="25" r="B17"/>
-      <c s="25" r="C17"/>
-      <c s="25" r="D17"/>
-      <c s="25" r="E17"/>
-      <c s="25" r="F17"/>
+      <c s="26" r="A17"/>
+      <c s="26" r="B17"/>
+      <c s="26" r="C17"/>
+      <c s="26" r="D17"/>
+      <c s="26" r="E17"/>
+      <c s="26" r="F17"/>
     </row>
     <row r="18">
-      <c s="25" r="A18"/>
-      <c s="25" r="B18"/>
-      <c s="25" r="C18"/>
-      <c s="25" r="D18"/>
-      <c s="25" r="E18"/>
-      <c s="25" r="F18"/>
+      <c s="26" r="A18"/>
+      <c s="26" r="B18"/>
+      <c s="26" r="C18"/>
+      <c s="26" r="D18"/>
+      <c s="26" r="E18"/>
+      <c s="26" r="F18"/>
     </row>
     <row r="19">
-      <c s="25" r="A19"/>
-      <c s="25" r="B19"/>
-      <c s="25" r="C19"/>
-      <c s="25" r="D19"/>
-      <c s="25" r="E19"/>
-      <c s="25" r="F19"/>
+      <c s="26" r="A19"/>
+      <c s="26" r="B19"/>
+      <c s="26" r="C19"/>
+      <c s="26" r="D19"/>
+      <c s="26" r="E19"/>
+      <c s="26" r="F19"/>
     </row>
     <row r="20">
-      <c s="25" r="A20"/>
-      <c s="25" r="B20"/>
-      <c s="25" r="C20"/>
-      <c s="25" r="D20"/>
-      <c s="25" r="E20"/>
-      <c s="25" r="F20"/>
+      <c s="26" r="A20"/>
+      <c s="26" r="B20"/>
+      <c s="26" r="C20"/>
+      <c s="26" r="D20"/>
+      <c s="26" r="E20"/>
+      <c s="26" r="F20"/>
     </row>
   </sheetData>
 </worksheet>
